--- a/Зачет.xlsx
+++ b/Зачет.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6222222222222222</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6222222222222222</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.6222222222222222</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.6222222222222222</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.6222222222222222</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6444444444444445</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.5555555555555554</t>
+          <t>0.6859903381642509</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.16666666666666663</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/Зачет.xlsx
+++ b/Зачет.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -479,12 +479,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Незачет</t>
+          <t>Зачет</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Незачет</t>
+          <t>Зачет</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6859903381642509</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.16666666666666663</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/Зачет.xlsx
+++ b/Зачет.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Auto_Grade</t>
+          <t>Уверенность</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Auto_Grade</t>
+          <t>Уверенность</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.06666666666666671</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.9333333333333333</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/Зачет.xlsx
+++ b/Зачет.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.06666666666666671</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9333333333333333</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
